--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H2">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I2">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J2">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N2">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O2">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P2">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q2">
-        <v>2243.392298147434</v>
+        <v>2115.710906870346</v>
       </c>
       <c r="R2">
-        <v>20190.53068332691</v>
+        <v>19041.39816183312</v>
       </c>
       <c r="S2">
-        <v>0.5242145233553857</v>
+        <v>0.2314701257053312</v>
       </c>
       <c r="T2">
-        <v>0.5242145233553859</v>
+        <v>0.2314701257053312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H3">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I3">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J3">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P3">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q3">
-        <v>245.6399132574054</v>
+        <v>243.08342405984</v>
       </c>
       <c r="R3">
-        <v>2210.759219316648</v>
+        <v>2187.75081653856</v>
       </c>
       <c r="S3">
-        <v>0.0573987929581572</v>
+        <v>0.02659463093057713</v>
       </c>
       <c r="T3">
-        <v>0.05739879295815722</v>
+        <v>0.02659463093057713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H4">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I4">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J4">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N4">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O4">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P4">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q4">
-        <v>470.7957945992094</v>
+        <v>1928.349754574907</v>
       </c>
       <c r="R4">
-        <v>4237.162151392885</v>
+        <v>17355.14779117416</v>
       </c>
       <c r="S4">
-        <v>0.1100110726364477</v>
+        <v>0.2109718103006649</v>
       </c>
       <c r="T4">
-        <v>0.1100110726364477</v>
+        <v>0.2109718103006649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H5">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I5">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J5">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N5">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P5">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q5">
-        <v>114.2910437783143</v>
+        <v>70.94917524152001</v>
       </c>
       <c r="R5">
-        <v>1028.619394004829</v>
+        <v>638.54257717368</v>
       </c>
       <c r="S5">
-        <v>0.02670644144027508</v>
+        <v>0.007762220470913614</v>
       </c>
       <c r="T5">
-        <v>0.02670644144027508</v>
+        <v>0.007762220470913614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.561396</v>
       </c>
       <c r="I6">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J6">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N6">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O6">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P6">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q6">
-        <v>176.8614479235133</v>
+        <v>168.5496545372426</v>
       </c>
       <c r="R6">
-        <v>1591.75303131162</v>
+        <v>1516.946890835184</v>
       </c>
       <c r="S6">
-        <v>0.04132729692427378</v>
+        <v>0.0184402366110771</v>
       </c>
       <c r="T6">
-        <v>0.04132729692427378</v>
+        <v>0.01844023661107711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.561396</v>
       </c>
       <c r="I7">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J7">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P7">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q7">
         <v>19.365418505888</v>
@@ -883,10 +883,10 @@
         <v>174.288766552992</v>
       </c>
       <c r="S7">
-        <v>0.004525126363331433</v>
+        <v>0.002118680695617805</v>
       </c>
       <c r="T7">
-        <v>0.004525126363331433</v>
+        <v>0.002118680695617806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.561396</v>
       </c>
       <c r="I8">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J8">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N8">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O8">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P8">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q8">
-        <v>37.11594533772666</v>
+        <v>153.6233915064347</v>
       </c>
       <c r="R8">
-        <v>334.04350803954</v>
+        <v>1382.610523557912</v>
       </c>
       <c r="S8">
-        <v>0.008672900236917126</v>
+        <v>0.01680722334407896</v>
       </c>
       <c r="T8">
-        <v>0.008672900236917127</v>
+        <v>0.01680722334407896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.561396</v>
       </c>
       <c r="I9">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J9">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N9">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P9">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q9">
-        <v>9.010318660724</v>
+        <v>5.652217861064001</v>
       </c>
       <c r="R9">
-        <v>81.09286794651601</v>
+        <v>50.86996074957601</v>
       </c>
       <c r="S9">
-        <v>0.00210544535875961</v>
+        <v>0.0006183829627034097</v>
       </c>
       <c r="T9">
-        <v>0.00210544535875961</v>
+        <v>0.0006183829627034097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H10">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I10">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J10">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N10">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O10">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P10">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q10">
-        <v>701.8524519359928</v>
+        <v>2151.077805365599</v>
       </c>
       <c r="R10">
-        <v>6316.672067423935</v>
+        <v>19359.70024829038</v>
       </c>
       <c r="S10">
-        <v>0.1640021893902641</v>
+        <v>0.2353394541726185</v>
       </c>
       <c r="T10">
-        <v>0.1640021893902641</v>
+        <v>0.2353394541726185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H11">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I11">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J11">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P11">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q11">
-        <v>76.84923210061068</v>
+        <v>247.1468841274161</v>
       </c>
       <c r="R11">
-        <v>691.643088905496</v>
+        <v>2224.321957146744</v>
       </c>
       <c r="S11">
-        <v>0.01795739586389607</v>
+        <v>0.02703919526570728</v>
       </c>
       <c r="T11">
-        <v>0.01795739586389607</v>
+        <v>0.02703919526570728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H12">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I12">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J12">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N12">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O12">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P12">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q12">
-        <v>147.2899693350439</v>
+        <v>1960.584664274493</v>
       </c>
       <c r="R12">
-        <v>1325.609724015395</v>
+        <v>17645.26197847044</v>
       </c>
       <c r="S12">
-        <v>0.0344173157471209</v>
+        <v>0.2144984823880629</v>
       </c>
       <c r="T12">
-        <v>0.0344173157471209</v>
+        <v>0.2144984823880629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H13">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I13">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J13">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N13">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O13">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P13">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q13">
-        <v>35.75631840065367</v>
+        <v>72.13518428979802</v>
       </c>
       <c r="R13">
-        <v>321.806865605883</v>
+        <v>649.2166586081821</v>
       </c>
       <c r="S13">
-        <v>0.008355195577171511</v>
+        <v>0.007891976224689378</v>
       </c>
       <c r="T13">
-        <v>0.008355195577171511</v>
+        <v>0.00789197622468938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H14">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I14">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J14">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.23928166666666</v>
+        <v>40.25420133333333</v>
       </c>
       <c r="N14">
-        <v>126.717845</v>
+        <v>120.762604</v>
       </c>
       <c r="O14">
-        <v>0.7297675404946526</v>
+        <v>0.4854671023051697</v>
       </c>
       <c r="P14">
-        <v>0.7297675404946528</v>
+        <v>0.4854671023051695</v>
       </c>
       <c r="Q14">
-        <v>0.9566070916655556</v>
+        <v>1.986061785384</v>
       </c>
       <c r="R14">
-        <v>8.60946382499</v>
+        <v>17.874556068456</v>
       </c>
       <c r="S14">
-        <v>0.0002235308247291152</v>
+        <v>0.0002172858161427254</v>
       </c>
       <c r="T14">
-        <v>0.0002235308247291152</v>
+        <v>0.0002172858161427255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H15">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I15">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J15">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.874952</v>
       </c>
       <c r="O15">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450057</v>
       </c>
       <c r="P15">
-        <v>0.07990579066051323</v>
+        <v>0.05577747182450056</v>
       </c>
       <c r="Q15">
-        <v>0.1047435543093334</v>
+        <v>0.228187460592</v>
       </c>
       <c r="R15">
-        <v>0.9426919887840001</v>
+        <v>2.053687145328</v>
       </c>
       <c r="S15">
-        <v>2.44754751285179E-05</v>
+        <v>2.496493259834925E-05</v>
       </c>
       <c r="T15">
-        <v>2.44754751285179E-05</v>
+        <v>2.496493259834925E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H16">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I16">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J16">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.864288333333333</v>
+        <v>36.68940733333334</v>
       </c>
       <c r="N16">
-        <v>26.592865</v>
+        <v>110.068222</v>
       </c>
       <c r="O16">
-        <v>0.1531481985489599</v>
+        <v>0.4424755596543956</v>
       </c>
       <c r="P16">
-        <v>0.15314819854896</v>
+        <v>0.4424755596543954</v>
       </c>
       <c r="Q16">
-        <v>0.2007524926477778</v>
+        <v>1.810181979012</v>
       </c>
       <c r="R16">
-        <v>1.80677243383</v>
+        <v>16.291637811108</v>
       </c>
       <c r="S16">
-        <v>4.690992847424151E-05</v>
+        <v>0.0001980436215887552</v>
       </c>
       <c r="T16">
-        <v>4.690992847424152E-05</v>
+        <v>0.0001980436215887552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H17">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I17">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J17">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.151907</v>
+        <v>1.349902</v>
       </c>
       <c r="N17">
-        <v>6.455721</v>
+        <v>4.049706</v>
       </c>
       <c r="O17">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="P17">
-        <v>0.03717847029587412</v>
+        <v>0.01627986621593436</v>
       </c>
       <c r="Q17">
-        <v>0.04873495513133334</v>
+        <v>0.06660146487600001</v>
       </c>
       <c r="R17">
-        <v>0.438614596182</v>
+        <v>0.5994131838840001</v>
       </c>
       <c r="S17">
-        <v>1.138791966791314E-05</v>
+        <v>7.286557627956517E-06</v>
       </c>
       <c r="T17">
-        <v>1.138791966791314E-05</v>
+        <v>7.286557627956518E-06</v>
       </c>
     </row>
   </sheetData>
